--- a/MedicalLink/Templates/BC_BenhNhanSuDungKetHopDichVu.xlsx
+++ b/MedicalLink/Templates/BC_BenhNhanSuDungKetHopDichVu.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540"/>
+    <workbookView xWindow="975" yWindow="465" windowWidth="27825" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].BHYTCODE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -271,35 +271,41 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,116 +597,118 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="23.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="24.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="23.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="24.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="D2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -744,55 +752,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="J9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="K9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="M9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="N9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="19"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -806,12 +814,12 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
